--- a/homeworks/CF_HW_2_2021_Ans.xlsx
+++ b/homeworks/CF_HW_2_2021_Ans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Problems/Old HWs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7052782B-143D-F749-853A-74FDF609F401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8283D-455F-1648-B55D-2C2720F6973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24300" yWindow="460" windowWidth="25060" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27820" yWindow="460" windowWidth="25060" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 2 Ans" sheetId="1" r:id="rId1"/>
@@ -1250,12 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1357,6 +1351,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="114" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,8 +1718,8 @@
       <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
       <c r="E6" s="7"/>
       <c r="F6" s="2"/>
     </row>
@@ -1727,8 +1727,8 @@
       <c r="B7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="215">
-        <v>0.04</v>
+      <c r="C7" s="213">
+        <v>0.05</v>
       </c>
       <c r="D7" s="173"/>
       <c r="E7" s="5"/>
@@ -1736,13 +1736,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
-      <c r="C8" s="216"/>
+      <c r="C8" s="214"/>
       <c r="D8" s="173"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="176" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="53">
@@ -1753,17 +1753,17 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="178"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="53"/>
       <c r="D10" s="173"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11" s="177">
         <v>360000</v>
       </c>
       <c r="D11" s="173" t="s">
@@ -1773,29 +1773,29 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="178"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="53">
         <f>C11/(1+C7)^5</f>
-        <v>295893.75843336654</v>
-      </c>
-      <c r="D12" s="217" t="s">
+        <v>282069.41992864525</v>
+      </c>
+      <c r="D12" s="215" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="178"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="53"/>
-      <c r="D13" s="217"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14" s="177">
         <v>22800</v>
       </c>
       <c r="D14" s="173" t="s">
@@ -1805,29 +1805,29 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="178"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="142">
         <f>C14/C7</f>
-        <v>570000</v>
-      </c>
-      <c r="D15" s="217" t="s">
+        <v>456000</v>
+      </c>
+      <c r="D15" s="215" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="178"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="142"/>
-      <c r="D16" s="217"/>
+      <c r="D16" s="215"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="177">
         <v>40000</v>
       </c>
       <c r="D17" s="173" t="s">
@@ -1840,9 +1840,9 @@
       <c r="B18" s="146"/>
       <c r="C18" s="53">
         <f>-PV(C7,9,C17,0,1)</f>
-        <v>309309.79499801627</v>
-      </c>
-      <c r="D18" s="218" t="s">
+        <v>298528.51037705032</v>
+      </c>
+      <c r="D18" s="216" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="5"/>
@@ -1851,15 +1851,15 @@
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="146"/>
       <c r="C19" s="53"/>
-      <c r="D19" s="218"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="179">
+      <c r="C20" s="177">
         <v>13000</v>
       </c>
       <c r="D20" s="173" t="s">
@@ -1872,7 +1872,7 @@
       <c r="B21" s="146"/>
       <c r="C21" s="53">
         <f>C20/(C7-0.03)</f>
-        <v>1299999.9999999998</v>
+        <v>649999.99999999988</v>
       </c>
       <c r="D21" s="173" t="s">
         <v>74</v>
@@ -1881,17 +1881,17 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="6"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="180" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="7"/>
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="81">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C96" s="106">
         <f>-PV(C95,C94,C93,0)</f>
-        <v>4611735.308064851</v>
+        <v>4228183.3698134273</v>
       </c>
       <c r="D96" s="56" t="s">
         <v>14</v>
@@ -3289,27 +3289,27 @@
       <c r="G171" s="5"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B172" s="174"/>
-      <c r="C172" s="175"/>
-      <c r="D172" s="175"/>
-      <c r="E172" s="175"/>
-      <c r="F172" s="175"/>
+      <c r="B172" s="217"/>
+      <c r="C172" s="218"/>
+      <c r="D172" s="218"/>
+      <c r="E172" s="218"/>
+      <c r="F172" s="218"/>
       <c r="G172" s="5"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B173" s="175"/>
-      <c r="C173" s="175"/>
-      <c r="D173" s="175"/>
-      <c r="E173" s="175"/>
-      <c r="F173" s="175"/>
+      <c r="B173" s="218"/>
+      <c r="C173" s="218"/>
+      <c r="D173" s="218"/>
+      <c r="E173" s="218"/>
+      <c r="F173" s="218"/>
       <c r="G173" s="5"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B174" s="175"/>
-      <c r="C174" s="175"/>
-      <c r="D174" s="175"/>
-      <c r="E174" s="175"/>
-      <c r="F174" s="175"/>
+      <c r="B174" s="218"/>
+      <c r="C174" s="218"/>
+      <c r="D174" s="218"/>
+      <c r="E174" s="218"/>
+      <c r="F174" s="218"/>
       <c r="G174" s="5"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
@@ -3360,1580 +3360,1536 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="177" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="184" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="184"/>
-    <col min="5" max="5" width="13" style="177" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="177" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="177" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="184" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="177"/>
+    <col min="1" max="1" width="5.33203125" style="175" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="182" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="182"/>
+    <col min="5" max="5" width="13" style="175" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="175" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="175" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="182" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="175"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="183" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="186">
+      <c r="F2" s="184">
         <v>0.04</v>
       </c>
-      <c r="H2" s="184"/>
-    </row>
-    <row r="3" spans="2:8" s="177" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="187" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="188" t="s">
+      <c r="E3" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="188" t="s">
+      <c r="G3" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="184"/>
-    </row>
-    <row r="4" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="184">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="182">
         <v>0</v>
       </c>
-      <c r="C4" s="184">
+      <c r="C4" s="182">
         <v>1</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="182">
         <v>2021</v>
       </c>
-      <c r="E4" s="189">
+      <c r="E4" s="187">
         <f>12*15000</f>
         <v>180000</v>
       </c>
-      <c r="F4" s="190">
+      <c r="F4" s="188">
         <f>1/(1+$F$2)^C4</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="G4" s="189">
+      <c r="G4" s="187">
         <f>F4*E4</f>
         <v>173076.92307692306</v>
       </c>
-      <c r="H4" s="184"/>
-    </row>
-    <row r="5" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="184">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="182">
         <v>1</v>
       </c>
-      <c r="C5" s="184">
+      <c r="C5" s="182">
         <v>2</v>
       </c>
-      <c r="D5" s="184">
+      <c r="D5" s="182">
         <v>2022</v>
       </c>
-      <c r="E5" s="189">
+      <c r="E5" s="187">
         <f t="shared" ref="E5:E21" si="0">12*15000</f>
         <v>180000</v>
       </c>
-      <c r="F5" s="190">
+      <c r="F5" s="188">
         <f t="shared" ref="F5:F20" si="1">1/(1+$F$2)^C5</f>
         <v>0.92455621301775137</v>
       </c>
-      <c r="G5" s="189">
+      <c r="G5" s="187">
         <f t="shared" ref="G5:G20" si="2">F5*E5</f>
         <v>166420.11834319524</v>
       </c>
-      <c r="H5" s="184"/>
-    </row>
-    <row r="6" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="184">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="182">
         <v>2</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <v>3</v>
       </c>
-      <c r="D6" s="184">
+      <c r="D6" s="182">
         <v>2023</v>
       </c>
-      <c r="E6" s="189">
+      <c r="E6" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F6" s="190">
+      <c r="F6" s="188">
         <f t="shared" si="1"/>
         <v>0.88899635867091487</v>
       </c>
-      <c r="G6" s="189">
+      <c r="G6" s="187">
         <f t="shared" si="2"/>
         <v>160019.34456076467</v>
       </c>
-      <c r="H6" s="184"/>
-    </row>
-    <row r="7" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="184">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="182">
         <v>3</v>
       </c>
-      <c r="C7" s="184">
+      <c r="C7" s="182">
         <v>4</v>
       </c>
-      <c r="D7" s="184">
+      <c r="D7" s="182">
         <v>2024</v>
       </c>
-      <c r="E7" s="189">
+      <c r="E7" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F7" s="190">
+      <c r="F7" s="188">
         <f t="shared" si="1"/>
         <v>0.85480419102972571</v>
       </c>
-      <c r="G7" s="189">
+      <c r="G7" s="187">
         <f t="shared" si="2"/>
         <v>153864.75438535062</v>
       </c>
-      <c r="H7" s="184"/>
-    </row>
-    <row r="8" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="184">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="182">
         <v>4</v>
       </c>
-      <c r="C8" s="184">
+      <c r="C8" s="182">
         <v>5</v>
       </c>
-      <c r="D8" s="184">
+      <c r="D8" s="182">
         <v>2025</v>
       </c>
-      <c r="E8" s="189">
+      <c r="E8" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F8" s="190">
+      <c r="F8" s="188">
         <f t="shared" si="1"/>
         <v>0.82192710675935154</v>
       </c>
-      <c r="G8" s="189">
+      <c r="G8" s="187">
         <f t="shared" si="2"/>
         <v>147946.87921668327</v>
       </c>
-      <c r="H8" s="184"/>
-    </row>
-    <row r="9" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="184">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="182">
         <v>5</v>
       </c>
-      <c r="C9" s="184">
+      <c r="C9" s="182">
         <v>6</v>
       </c>
-      <c r="D9" s="184">
+      <c r="D9" s="182">
         <v>2026</v>
       </c>
-      <c r="E9" s="189">
+      <c r="E9" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F9" s="190">
+      <c r="F9" s="188">
         <f t="shared" si="1"/>
         <v>0.79031452573014571</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="187">
         <f t="shared" si="2"/>
         <v>142256.61463142623</v>
       </c>
-      <c r="H9" s="184"/>
-    </row>
-    <row r="10" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="184">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="182">
         <v>6</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="182">
         <v>7</v>
       </c>
-      <c r="D10" s="184">
+      <c r="D10" s="182">
         <v>2027</v>
       </c>
-      <c r="E10" s="189">
+      <c r="E10" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F10" s="190">
+      <c r="F10" s="188">
         <f t="shared" si="1"/>
         <v>0.75991781320206331</v>
       </c>
-      <c r="G10" s="189">
+      <c r="G10" s="187">
         <f t="shared" si="2"/>
         <v>136785.20637637138</v>
       </c>
-      <c r="H10" s="184"/>
-    </row>
-    <row r="11" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="184">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="182">
         <v>7</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="182">
         <v>8</v>
       </c>
-      <c r="D11" s="184">
+      <c r="D11" s="182">
         <v>2028</v>
       </c>
-      <c r="E11" s="189">
+      <c r="E11" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F11" s="190">
+      <c r="F11" s="188">
         <f t="shared" si="1"/>
         <v>0.73069020500198378</v>
       </c>
-      <c r="G11" s="189">
+      <c r="G11" s="187">
         <f t="shared" si="2"/>
         <v>131524.23690035709</v>
       </c>
-      <c r="H11" s="184"/>
-    </row>
-    <row r="12" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="184">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="182">
         <v>8</v>
       </c>
-      <c r="C12" s="184">
+      <c r="C12" s="182">
         <v>9</v>
       </c>
-      <c r="D12" s="184">
+      <c r="D12" s="182">
         <v>2029</v>
       </c>
-      <c r="E12" s="189">
+      <c r="E12" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F12" s="190">
+      <c r="F12" s="188">
         <f t="shared" si="1"/>
         <v>0.70258673557883045</v>
       </c>
-      <c r="G12" s="189">
+      <c r="G12" s="187">
         <f t="shared" si="2"/>
         <v>126465.61240418948</v>
       </c>
-      <c r="H12" s="184"/>
-    </row>
-    <row r="13" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="184">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="182">
         <v>9</v>
       </c>
-      <c r="C13" s="184">
+      <c r="C13" s="182">
         <v>10</v>
       </c>
-      <c r="D13" s="184">
+      <c r="D13" s="182">
         <v>2030</v>
       </c>
-      <c r="E13" s="189">
+      <c r="E13" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F13" s="190">
+      <c r="F13" s="188">
         <f t="shared" si="1"/>
         <v>0.67556416882579851</v>
       </c>
-      <c r="G13" s="189">
+      <c r="G13" s="187">
         <f t="shared" si="2"/>
         <v>121601.55038864374</v>
       </c>
-      <c r="H13" s="184"/>
-    </row>
-    <row r="14" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="184">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="182">
         <v>10</v>
       </c>
-      <c r="C14" s="184">
+      <c r="C14" s="182">
         <v>11</v>
       </c>
-      <c r="D14" s="184">
+      <c r="D14" s="182">
         <v>2031</v>
       </c>
-      <c r="E14" s="189">
+      <c r="E14" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F14" s="190">
+      <c r="F14" s="188">
         <f t="shared" si="1"/>
         <v>0.6495809315632679</v>
       </c>
-      <c r="G14" s="189">
+      <c r="G14" s="187">
         <f t="shared" si="2"/>
         <v>116924.56768138822</v>
       </c>
-      <c r="H14" s="184"/>
-    </row>
-    <row r="15" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="184">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="182">
         <v>11</v>
       </c>
-      <c r="C15" s="184">
+      <c r="C15" s="182">
         <v>12</v>
       </c>
-      <c r="D15" s="184">
+      <c r="D15" s="182">
         <v>2032</v>
       </c>
-      <c r="E15" s="189">
+      <c r="E15" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F15" s="190">
+      <c r="F15" s="188">
         <f t="shared" si="1"/>
         <v>0.62459704958006512</v>
       </c>
-      <c r="G15" s="189">
+      <c r="G15" s="187">
         <f t="shared" si="2"/>
         <v>112427.46892441172</v>
       </c>
-      <c r="H15" s="184"/>
-    </row>
-    <row r="16" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="184">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="182">
         <v>12</v>
       </c>
-      <c r="C16" s="184">
+      <c r="C16" s="182">
         <v>13</v>
       </c>
-      <c r="D16" s="184">
+      <c r="D16" s="182">
         <v>2033</v>
       </c>
-      <c r="E16" s="189">
+      <c r="E16" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F16" s="190">
+      <c r="F16" s="188">
         <f t="shared" si="1"/>
         <v>0.600574086134678</v>
       </c>
-      <c r="G16" s="189">
+      <c r="G16" s="187">
         <f t="shared" si="2"/>
         <v>108103.33550424204</v>
       </c>
-      <c r="H16" s="184"/>
-    </row>
-    <row r="17" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="184">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="182">
         <v>13</v>
       </c>
-      <c r="C17" s="184">
+      <c r="C17" s="182">
         <v>14</v>
       </c>
-      <c r="D17" s="184">
+      <c r="D17" s="182">
         <v>2034</v>
       </c>
-      <c r="E17" s="189">
+      <c r="E17" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F17" s="190">
+      <c r="F17" s="188">
         <f t="shared" si="1"/>
         <v>0.57747508282180582</v>
       </c>
-      <c r="G17" s="189">
+      <c r="G17" s="187">
         <f t="shared" si="2"/>
         <v>103945.51490792504</v>
       </c>
-      <c r="H17" s="184"/>
-    </row>
-    <row r="18" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="184">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="182">
         <v>14</v>
       </c>
-      <c r="C18" s="184">
+      <c r="C18" s="182">
         <v>15</v>
       </c>
-      <c r="D18" s="184">
+      <c r="D18" s="182">
         <v>2035</v>
       </c>
-      <c r="E18" s="189">
+      <c r="E18" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F18" s="190">
+      <c r="F18" s="188">
         <f t="shared" si="1"/>
         <v>0.55526450271327477</v>
       </c>
-      <c r="G18" s="189">
+      <c r="G18" s="187">
         <f t="shared" si="2"/>
         <v>99947.610488389459</v>
       </c>
-      <c r="H18" s="184"/>
-    </row>
-    <row r="19" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="184">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="182">
         <v>15</v>
       </c>
-      <c r="C19" s="184">
+      <c r="C19" s="182">
         <v>16</v>
       </c>
-      <c r="D19" s="184">
+      <c r="D19" s="182">
         <v>2036</v>
       </c>
-      <c r="E19" s="189">
+      <c r="E19" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F19" s="190">
+      <c r="F19" s="188">
         <f t="shared" si="1"/>
         <v>0.53390817568584104</v>
       </c>
-      <c r="G19" s="189">
+      <c r="G19" s="187">
         <f t="shared" si="2"/>
         <v>96103.471623451391</v>
       </c>
-      <c r="H19" s="184"/>
-    </row>
-    <row r="20" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="184">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="182">
         <v>16</v>
       </c>
-      <c r="C20" s="184">
+      <c r="C20" s="182">
         <v>17</v>
       </c>
-      <c r="D20" s="184">
+      <c r="D20" s="182">
         <v>2037</v>
       </c>
-      <c r="E20" s="189">
+      <c r="E20" s="187">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F20" s="190">
+      <c r="F20" s="188">
         <f t="shared" si="1"/>
         <v>0.51337324585177024</v>
       </c>
-      <c r="G20" s="189">
+      <c r="G20" s="187">
         <f t="shared" si="2"/>
         <v>92407.184253318643</v>
       </c>
-      <c r="H20" s="184"/>
-    </row>
-    <row r="21" spans="2:8" s="177" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="191">
+    </row>
+    <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="189">
         <v>17</v>
       </c>
-      <c r="C21" s="191">
+      <c r="C21" s="189">
         <v>18</v>
       </c>
-      <c r="D21" s="191">
+      <c r="D21" s="189">
         <v>2038</v>
       </c>
-      <c r="E21" s="192">
+      <c r="E21" s="190">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="F21" s="193">
+      <c r="F21" s="191">
         <f t="shared" ref="F21" si="3">1/(1+$F$2)^C21</f>
         <v>0.49362812101131748</v>
       </c>
-      <c r="G21" s="192">
+      <c r="G21" s="190">
         <f t="shared" ref="G21" si="4">F21*E21</f>
         <v>88853.061782037141</v>
       </c>
-      <c r="H21" s="184"/>
-    </row>
-    <row r="22" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="F22" s="194" t="s">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="195">
+      <c r="G22" s="193">
         <f>SUM(G4:G21)</f>
         <v>2278673.4554490689</v>
       </c>
-      <c r="H22" s="184"/>
-    </row>
-    <row r="24" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="183" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="185" t="s">
+      <c r="E24" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="186">
+      <c r="F24" s="184">
         <v>0.04</v>
       </c>
-      <c r="H24" s="184"/>
-    </row>
-    <row r="25" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="185" t="s">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="186">
+      <c r="F25" s="184">
         <v>0.02</v>
       </c>
-      <c r="H25" s="184"/>
-    </row>
-    <row r="26" spans="2:8" s="177" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="187" t="s">
+    </row>
+    <row r="26" spans="2:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="188" t="s">
+      <c r="C26" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="188" t="s">
+      <c r="D26" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="188" t="s">
+      <c r="E26" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="196" t="s">
+      <c r="F26" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="188" t="s">
+      <c r="G26" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="188" t="s">
+      <c r="H26" s="186" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="184">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="182">
         <v>0</v>
       </c>
-      <c r="C27" s="184">
+      <c r="C27" s="182">
         <v>1</v>
       </c>
-      <c r="D27" s="184">
+      <c r="D27" s="182">
         <v>2021</v>
       </c>
-      <c r="E27" s="189">
+      <c r="E27" s="187">
         <f>12*15000</f>
         <v>180000</v>
       </c>
-      <c r="F27" s="197">
+      <c r="F27" s="195">
         <f>E27*(1+$F$25)^B27</f>
         <v>180000</v>
       </c>
-      <c r="G27" s="190">
+      <c r="G27" s="188">
         <f t="shared" ref="G27:G44" si="5">1/(1+$F$2)^C27</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="H27" s="189">
+      <c r="H27" s="187">
         <f>F27*G27</f>
         <v>173076.92307692306</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="184">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="182">
         <v>1</v>
       </c>
-      <c r="C28" s="184">
+      <c r="C28" s="182">
         <v>2</v>
       </c>
-      <c r="D28" s="184">
+      <c r="D28" s="182">
         <v>2022</v>
       </c>
-      <c r="E28" s="189">
+      <c r="E28" s="187">
         <f t="shared" ref="E28:E44" si="6">12*15000</f>
         <v>180000</v>
       </c>
-      <c r="F28" s="197">
+      <c r="F28" s="195">
         <f t="shared" ref="F28:F44" si="7">E28*(1+$F$25)^B28</f>
         <v>183600</v>
       </c>
-      <c r="G28" s="190">
+      <c r="G28" s="188">
         <f t="shared" si="5"/>
         <v>0.92455621301775137</v>
       </c>
-      <c r="H28" s="189">
+      <c r="H28" s="187">
         <f t="shared" ref="H28:H44" si="8">F28*G28</f>
         <v>169748.52071005915</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="184">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="182">
         <v>2</v>
       </c>
-      <c r="C29" s="184">
+      <c r="C29" s="182">
         <v>3</v>
       </c>
-      <c r="D29" s="184">
+      <c r="D29" s="182">
         <v>2023</v>
       </c>
-      <c r="E29" s="189">
+      <c r="E29" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F29" s="197">
+      <c r="F29" s="195">
         <f t="shared" si="7"/>
         <v>187272</v>
       </c>
-      <c r="G29" s="190">
+      <c r="G29" s="188">
         <f t="shared" si="5"/>
         <v>0.88899635867091487</v>
       </c>
-      <c r="H29" s="189">
+      <c r="H29" s="187">
         <f t="shared" si="8"/>
         <v>166484.12608101958</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="184">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="182">
         <v>3</v>
       </c>
-      <c r="C30" s="184">
+      <c r="C30" s="182">
         <v>4</v>
       </c>
-      <c r="D30" s="184">
+      <c r="D30" s="182">
         <v>2024</v>
       </c>
-      <c r="E30" s="189">
+      <c r="E30" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F30" s="197">
+      <c r="F30" s="195">
         <f t="shared" si="7"/>
         <v>191017.43999999997</v>
       </c>
-      <c r="G30" s="190">
+      <c r="G30" s="188">
         <f t="shared" si="5"/>
         <v>0.85480419102972571</v>
       </c>
-      <c r="H30" s="189">
+      <c r="H30" s="187">
         <f t="shared" si="8"/>
         <v>163282.50827176915</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="184">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="182">
         <v>4</v>
       </c>
-      <c r="C31" s="184">
+      <c r="C31" s="182">
         <v>5</v>
       </c>
-      <c r="D31" s="184">
+      <c r="D31" s="182">
         <v>2025</v>
       </c>
-      <c r="E31" s="189">
+      <c r="E31" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F31" s="197">
+      <c r="F31" s="195">
         <f t="shared" si="7"/>
         <v>194837.78880000001</v>
       </c>
-      <c r="G31" s="190">
+      <c r="G31" s="188">
         <f t="shared" si="5"/>
         <v>0.82192710675935154</v>
       </c>
-      <c r="H31" s="189">
+      <c r="H31" s="187">
         <f t="shared" si="8"/>
         <v>160142.46003577361</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="184">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="182">
         <v>5</v>
       </c>
-      <c r="C32" s="184">
+      <c r="C32" s="182">
         <v>6</v>
       </c>
-      <c r="D32" s="184">
+      <c r="D32" s="182">
         <v>2026</v>
       </c>
-      <c r="E32" s="189">
+      <c r="E32" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F32" s="197">
+      <c r="F32" s="195">
         <f t="shared" si="7"/>
         <v>198734.54457600001</v>
       </c>
-      <c r="G32" s="190">
+      <c r="G32" s="188">
         <f t="shared" si="5"/>
         <v>0.79031452573014571</v>
       </c>
-      <c r="H32" s="189">
+      <c r="H32" s="187">
         <f t="shared" si="8"/>
         <v>157062.79734277795</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="184">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="182">
         <v>6</v>
       </c>
-      <c r="C33" s="184">
+      <c r="C33" s="182">
         <v>7</v>
       </c>
-      <c r="D33" s="184">
+      <c r="D33" s="182">
         <v>2027</v>
       </c>
-      <c r="E33" s="189">
+      <c r="E33" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F33" s="197">
+      <c r="F33" s="195">
         <f t="shared" si="7"/>
         <v>202709.23546752002</v>
       </c>
-      <c r="G33" s="190">
+      <c r="G33" s="188">
         <f t="shared" si="5"/>
         <v>0.75991781320206331</v>
       </c>
-      <c r="H33" s="189">
+      <c r="H33" s="187">
         <f t="shared" si="8"/>
         <v>154042.35893233994</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="184">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="182">
         <v>7</v>
       </c>
-      <c r="C34" s="184">
+      <c r="C34" s="182">
         <v>8</v>
       </c>
-      <c r="D34" s="184">
+      <c r="D34" s="182">
         <v>2028</v>
       </c>
-      <c r="E34" s="189">
+      <c r="E34" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F34" s="197">
+      <c r="F34" s="195">
         <f t="shared" si="7"/>
         <v>206763.42017687036</v>
       </c>
-      <c r="G34" s="190">
+      <c r="G34" s="188">
         <f t="shared" si="5"/>
         <v>0.73069020500198378</v>
       </c>
-      <c r="H34" s="189">
+      <c r="H34" s="187">
         <f t="shared" si="8"/>
         <v>151080.00587594873</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="184">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="182">
         <v>8</v>
       </c>
-      <c r="C35" s="184">
+      <c r="C35" s="182">
         <v>9</v>
       </c>
-      <c r="D35" s="184">
+      <c r="D35" s="182">
         <v>2029</v>
       </c>
-      <c r="E35" s="189">
+      <c r="E35" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F35" s="197">
+      <c r="F35" s="195">
         <f t="shared" si="7"/>
         <v>210898.68858040779</v>
       </c>
-      <c r="G35" s="190">
+      <c r="G35" s="188">
         <f t="shared" si="5"/>
         <v>0.70258673557883045</v>
       </c>
-      <c r="H35" s="189">
+      <c r="H35" s="187">
         <f t="shared" si="8"/>
         <v>148174.62114756508</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="184">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="182">
         <v>9</v>
       </c>
-      <c r="C36" s="184">
+      <c r="C36" s="182">
         <v>10</v>
       </c>
-      <c r="D36" s="184">
+      <c r="D36" s="182">
         <v>2030</v>
       </c>
-      <c r="E36" s="189">
+      <c r="E36" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F36" s="197">
+      <c r="F36" s="195">
         <f t="shared" si="7"/>
         <v>215116.66235201596</v>
       </c>
-      <c r="G36" s="190">
+      <c r="G36" s="188">
         <f t="shared" si="5"/>
         <v>0.67556416882579851</v>
       </c>
-      <c r="H36" s="189">
+      <c r="H36" s="187">
         <f t="shared" si="8"/>
         <v>145325.10920241961</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="184">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="182">
         <v>10</v>
       </c>
-      <c r="C37" s="184">
+      <c r="C37" s="182">
         <v>11</v>
       </c>
-      <c r="D37" s="184">
+      <c r="D37" s="182">
         <v>2031</v>
       </c>
-      <c r="E37" s="189">
+      <c r="E37" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F37" s="197">
+      <c r="F37" s="195">
         <f t="shared" si="7"/>
         <v>219418.99559905627</v>
       </c>
-      <c r="G37" s="190">
+      <c r="G37" s="188">
         <f t="shared" si="5"/>
         <v>0.6495809315632679</v>
       </c>
-      <c r="H37" s="189">
+      <c r="H37" s="187">
         <f t="shared" si="8"/>
         <v>142530.39556391156</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="184">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="182">
         <v>11</v>
       </c>
-      <c r="C38" s="184">
+      <c r="C38" s="182">
         <v>12</v>
       </c>
-      <c r="D38" s="184">
+      <c r="D38" s="182">
         <v>2032</v>
       </c>
-      <c r="E38" s="189">
+      <c r="E38" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F38" s="197">
+      <c r="F38" s="195">
         <f t="shared" si="7"/>
         <v>223807.37551103736</v>
       </c>
-      <c r="G38" s="190">
+      <c r="G38" s="188">
         <f t="shared" si="5"/>
         <v>0.62459704958006512</v>
       </c>
-      <c r="H38" s="189">
+      <c r="H38" s="187">
         <f t="shared" si="8"/>
         <v>139789.42641845165</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="184">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="182">
         <v>12</v>
       </c>
-      <c r="C39" s="184">
+      <c r="C39" s="182">
         <v>13</v>
       </c>
-      <c r="D39" s="184">
+      <c r="D39" s="182">
         <v>2033</v>
       </c>
-      <c r="E39" s="189">
+      <c r="E39" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F39" s="197">
+      <c r="F39" s="195">
         <f t="shared" si="7"/>
         <v>228283.52302125815</v>
       </c>
-      <c r="G39" s="190">
+      <c r="G39" s="188">
         <f t="shared" si="5"/>
         <v>0.600574086134678</v>
       </c>
-      <c r="H39" s="189">
+      <c r="H39" s="187">
         <f t="shared" si="8"/>
         <v>137101.16821809683</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="184">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="182">
         <v>13</v>
       </c>
-      <c r="C40" s="184">
+      <c r="C40" s="182">
         <v>14</v>
       </c>
-      <c r="D40" s="184">
+      <c r="D40" s="182">
         <v>2034</v>
       </c>
-      <c r="E40" s="189">
+      <c r="E40" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F40" s="197">
+      <c r="F40" s="195">
         <f t="shared" si="7"/>
         <v>232849.19348168329</v>
       </c>
-      <c r="G40" s="190">
+      <c r="G40" s="188">
         <f t="shared" si="5"/>
         <v>0.57747508282180582</v>
       </c>
-      <c r="H40" s="189">
+      <c r="H40" s="187">
         <f t="shared" si="8"/>
         <v>134464.60729082575</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="184">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="182">
         <v>14</v>
       </c>
-      <c r="C41" s="184">
+      <c r="C41" s="182">
         <v>15</v>
       </c>
-      <c r="D41" s="184">
+      <c r="D41" s="182">
         <v>2035</v>
       </c>
-      <c r="E41" s="189">
+      <c r="E41" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F41" s="197">
+      <c r="F41" s="195">
         <f t="shared" si="7"/>
         <v>237506.17735131699</v>
       </c>
-      <c r="G41" s="190">
+      <c r="G41" s="188">
         <f t="shared" si="5"/>
         <v>0.55526450271327477</v>
       </c>
-      <c r="H41" s="189">
+      <c r="H41" s="187">
         <f t="shared" si="8"/>
         <v>131878.74945830987</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="184">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="182">
         <v>15</v>
       </c>
-      <c r="C42" s="184">
+      <c r="C42" s="182">
         <v>16</v>
       </c>
-      <c r="D42" s="184">
+      <c r="D42" s="182">
         <v>2036</v>
       </c>
-      <c r="E42" s="189">
+      <c r="E42" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F42" s="197">
+      <c r="F42" s="195">
         <f t="shared" si="7"/>
         <v>242256.30089834327</v>
       </c>
-      <c r="G42" s="190">
+      <c r="G42" s="188">
         <f t="shared" si="5"/>
         <v>0.53390817568584104</v>
       </c>
-      <c r="H42" s="189">
+      <c r="H42" s="187">
         <f t="shared" si="8"/>
         <v>129342.61966103462</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="184">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="182">
         <v>16</v>
       </c>
-      <c r="C43" s="184">
+      <c r="C43" s="182">
         <v>17</v>
       </c>
-      <c r="D43" s="184">
+      <c r="D43" s="182">
         <v>2037</v>
       </c>
-      <c r="E43" s="189">
+      <c r="E43" s="187">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F43" s="197">
+      <c r="F43" s="195">
         <f t="shared" si="7"/>
         <v>247101.42691631016</v>
       </c>
-      <c r="G43" s="190">
+      <c r="G43" s="188">
         <f t="shared" si="5"/>
         <v>0.51337324585177024</v>
       </c>
-      <c r="H43" s="189">
+      <c r="H43" s="187">
         <f t="shared" si="8"/>
         <v>126855.26159063014</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="177" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="198">
+    <row r="44" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="196">
         <v>17</v>
       </c>
-      <c r="C44" s="198">
+      <c r="C44" s="196">
         <v>18</v>
       </c>
-      <c r="D44" s="191">
+      <c r="D44" s="189">
         <v>2038</v>
       </c>
-      <c r="E44" s="199">
+      <c r="E44" s="197">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="F44" s="200">
+      <c r="F44" s="198">
         <f t="shared" si="7"/>
         <v>252043.45545463639</v>
       </c>
-      <c r="G44" s="201">
+      <c r="G44" s="199">
         <f t="shared" si="5"/>
         <v>0.49362812101131748</v>
       </c>
-      <c r="H44" s="199">
+      <c r="H44" s="197">
         <f t="shared" si="8"/>
         <v>124415.73732927185</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="G45" s="194" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="195">
+      <c r="H45" s="193">
         <f>SUM(H27:H44)</f>
         <v>2654797.3962071287</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="202"/>
-    </row>
-    <row r="47" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="183" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="192"/>
+      <c r="H46" s="200"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="184"/>
-      <c r="D47" s="203" t="s">
+      <c r="D47" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="204">
+      <c r="E47" s="202">
         <v>0.04</v>
       </c>
-      <c r="F47" s="177" t="s">
+      <c r="F47" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="184"/>
-    </row>
-    <row r="48" spans="2:8" s="177" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B48" s="205" t="s">
+    </row>
+    <row r="48" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B48" s="203" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="206" t="s">
+      <c r="C48" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="206" t="s">
+      <c r="D48" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="207" t="s">
+      <c r="E48" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="206" t="s">
+      <c r="F48" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="206" t="s">
+      <c r="G48" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="206" t="s">
+      <c r="H48" s="204" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="184">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="182">
         <v>0</v>
       </c>
-      <c r="C49" s="184">
+      <c r="C49" s="182">
         <v>1</v>
       </c>
-      <c r="D49" s="184">
+      <c r="D49" s="182">
         <v>2021</v>
       </c>
-      <c r="E49" s="208">
+      <c r="E49" s="206">
         <v>0</v>
       </c>
-      <c r="F49" s="209">
+      <c r="F49" s="207">
         <f>12*15000</f>
         <v>180000</v>
       </c>
-      <c r="G49" s="208">
+      <c r="G49" s="206">
         <f>E49*$E$47</f>
         <v>0</v>
       </c>
-      <c r="H49" s="197">
+      <c r="H49" s="195">
         <f>E49+F49+G49</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="184">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="182">
         <v>1</v>
       </c>
-      <c r="C50" s="184">
+      <c r="C50" s="182">
         <v>2</v>
       </c>
-      <c r="D50" s="184">
+      <c r="D50" s="182">
         <v>2022</v>
       </c>
-      <c r="E50" s="210">
+      <c r="E50" s="208">
         <f>H49</f>
         <v>180000</v>
       </c>
-      <c r="F50" s="209">
+      <c r="F50" s="207">
         <f t="shared" ref="F50:F66" si="9">12*15000</f>
         <v>180000</v>
       </c>
-      <c r="G50" s="208">
+      <c r="G50" s="206">
         <f t="shared" ref="G50:G66" si="10">E50*$E$47</f>
         <v>7200</v>
       </c>
-      <c r="H50" s="197">
+      <c r="H50" s="195">
         <f>E50+F50+G50</f>
         <v>367200</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="184">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="182">
         <v>2</v>
       </c>
-      <c r="C51" s="184">
+      <c r="C51" s="182">
         <v>3</v>
       </c>
-      <c r="D51" s="184">
+      <c r="D51" s="182">
         <v>2023</v>
       </c>
-      <c r="E51" s="210">
+      <c r="E51" s="208">
         <f>H50</f>
         <v>367200</v>
       </c>
-      <c r="F51" s="209">
+      <c r="F51" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G51" s="208">
+      <c r="G51" s="206">
         <f t="shared" si="10"/>
         <v>14688</v>
       </c>
-      <c r="H51" s="197">
+      <c r="H51" s="195">
         <f>E51+F51+G51</f>
         <v>561888</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="184">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="182">
         <v>3</v>
       </c>
-      <c r="C52" s="184">
+      <c r="C52" s="182">
         <v>4</v>
       </c>
-      <c r="D52" s="184">
+      <c r="D52" s="182">
         <v>2024</v>
       </c>
-      <c r="E52" s="210">
+      <c r="E52" s="208">
         <f t="shared" ref="E52:E66" si="11">H51</f>
         <v>561888</v>
       </c>
-      <c r="F52" s="209">
+      <c r="F52" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G52" s="208">
+      <c r="G52" s="206">
         <f t="shared" si="10"/>
         <v>22475.52</v>
       </c>
-      <c r="H52" s="197">
+      <c r="H52" s="195">
         <f t="shared" ref="H52:H66" si="12">E52+F52+G52</f>
         <v>764363.52</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="184">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="182">
         <v>4</v>
       </c>
-      <c r="C53" s="184">
+      <c r="C53" s="182">
         <v>5</v>
       </c>
-      <c r="D53" s="184">
+      <c r="D53" s="182">
         <v>2025</v>
       </c>
-      <c r="E53" s="210">
+      <c r="E53" s="208">
         <f t="shared" si="11"/>
         <v>764363.52</v>
       </c>
-      <c r="F53" s="209">
+      <c r="F53" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G53" s="208">
+      <c r="G53" s="206">
         <f t="shared" si="10"/>
         <v>30574.540800000002</v>
       </c>
-      <c r="H53" s="197">
+      <c r="H53" s="195">
         <f t="shared" si="12"/>
         <v>974938.06079999998</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="184">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="182">
         <v>5</v>
       </c>
-      <c r="C54" s="184">
+      <c r="C54" s="182">
         <v>6</v>
       </c>
-      <c r="D54" s="184">
+      <c r="D54" s="182">
         <v>2026</v>
       </c>
-      <c r="E54" s="210">
+      <c r="E54" s="208">
         <f t="shared" si="11"/>
         <v>974938.06079999998</v>
       </c>
-      <c r="F54" s="209">
+      <c r="F54" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G54" s="208">
+      <c r="G54" s="206">
         <f t="shared" si="10"/>
         <v>38997.522431999998</v>
       </c>
-      <c r="H54" s="197">
+      <c r="H54" s="195">
         <f t="shared" si="12"/>
         <v>1193935.583232</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="184">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="182">
         <v>6</v>
       </c>
-      <c r="C55" s="184">
+      <c r="C55" s="182">
         <v>7</v>
       </c>
-      <c r="D55" s="184">
+      <c r="D55" s="182">
         <v>2027</v>
       </c>
-      <c r="E55" s="210">
+      <c r="E55" s="208">
         <f t="shared" si="11"/>
         <v>1193935.583232</v>
       </c>
-      <c r="F55" s="209">
+      <c r="F55" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G55" s="208">
+      <c r="G55" s="206">
         <f t="shared" si="10"/>
         <v>47757.423329279998</v>
       </c>
-      <c r="H55" s="197">
+      <c r="H55" s="195">
         <f t="shared" si="12"/>
         <v>1421693.00656128</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="184">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="182">
         <v>7</v>
       </c>
-      <c r="C56" s="184">
+      <c r="C56" s="182">
         <v>8</v>
       </c>
-      <c r="D56" s="184">
+      <c r="D56" s="182">
         <v>2028</v>
       </c>
-      <c r="E56" s="210">
+      <c r="E56" s="208">
         <f t="shared" si="11"/>
         <v>1421693.00656128</v>
       </c>
-      <c r="F56" s="209">
+      <c r="F56" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G56" s="208">
+      <c r="G56" s="206">
         <f t="shared" si="10"/>
         <v>56867.720262451199</v>
       </c>
-      <c r="H56" s="197">
+      <c r="H56" s="195">
         <f t="shared" si="12"/>
         <v>1658560.7268237311</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="184">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="182">
         <v>8</v>
       </c>
-      <c r="C57" s="184">
+      <c r="C57" s="182">
         <v>9</v>
       </c>
-      <c r="D57" s="184">
+      <c r="D57" s="182">
         <v>2029</v>
       </c>
-      <c r="E57" s="210">
+      <c r="E57" s="208">
         <f t="shared" si="11"/>
         <v>1658560.7268237311</v>
       </c>
-      <c r="F57" s="209">
+      <c r="F57" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G57" s="208">
+      <c r="G57" s="206">
         <f t="shared" si="10"/>
         <v>66342.42907294925</v>
       </c>
-      <c r="H57" s="197">
+      <c r="H57" s="195">
         <f t="shared" si="12"/>
         <v>1904903.1558966804</v>
       </c>
     </row>
-    <row r="58" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="184">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="182">
         <v>9</v>
       </c>
-      <c r="C58" s="184">
+      <c r="C58" s="182">
         <v>10</v>
       </c>
-      <c r="D58" s="184">
+      <c r="D58" s="182">
         <v>2030</v>
       </c>
-      <c r="E58" s="210">
+      <c r="E58" s="208">
         <f t="shared" si="11"/>
         <v>1904903.1558966804</v>
       </c>
-      <c r="F58" s="209">
+      <c r="F58" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G58" s="208">
+      <c r="G58" s="206">
         <f t="shared" si="10"/>
         <v>76196.126235867225</v>
       </c>
-      <c r="H58" s="197">
+      <c r="H58" s="195">
         <f t="shared" si="12"/>
         <v>2161099.2821325478</v>
       </c>
     </row>
-    <row r="59" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="184">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="182">
         <v>10</v>
       </c>
-      <c r="C59" s="184">
+      <c r="C59" s="182">
         <v>11</v>
       </c>
-      <c r="D59" s="184">
+      <c r="D59" s="182">
         <v>2031</v>
       </c>
-      <c r="E59" s="210">
+      <c r="E59" s="208">
         <f t="shared" si="11"/>
         <v>2161099.2821325478</v>
       </c>
-      <c r="F59" s="209">
+      <c r="F59" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G59" s="208">
+      <c r="G59" s="206">
         <f t="shared" si="10"/>
         <v>86443.971285301915</v>
       </c>
-      <c r="H59" s="197">
+      <c r="H59" s="195">
         <f t="shared" si="12"/>
         <v>2427543.2534178495</v>
       </c>
     </row>
-    <row r="60" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="184">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="182">
         <v>11</v>
       </c>
-      <c r="C60" s="184">
+      <c r="C60" s="182">
         <v>12</v>
       </c>
-      <c r="D60" s="184">
+      <c r="D60" s="182">
         <v>2032</v>
       </c>
-      <c r="E60" s="210">
+      <c r="E60" s="208">
         <f t="shared" si="11"/>
         <v>2427543.2534178495</v>
       </c>
-      <c r="F60" s="209">
+      <c r="F60" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G60" s="208">
+      <c r="G60" s="206">
         <f t="shared" si="10"/>
         <v>97101.730136713988</v>
       </c>
-      <c r="H60" s="197">
+      <c r="H60" s="195">
         <f t="shared" si="12"/>
         <v>2704644.9835545635</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="184">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="182">
         <v>12</v>
       </c>
-      <c r="C61" s="184">
+      <c r="C61" s="182">
         <v>13</v>
       </c>
-      <c r="D61" s="184">
+      <c r="D61" s="182">
         <v>2033</v>
       </c>
-      <c r="E61" s="210">
+      <c r="E61" s="208">
         <f t="shared" si="11"/>
         <v>2704644.9835545635</v>
       </c>
-      <c r="F61" s="209">
+      <c r="F61" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G61" s="208">
+      <c r="G61" s="206">
         <f t="shared" si="10"/>
         <v>108185.79934218254</v>
       </c>
-      <c r="H61" s="197">
+      <c r="H61" s="195">
         <f t="shared" si="12"/>
         <v>2992830.7828967459</v>
       </c>
     </row>
-    <row r="62" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="184">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="182">
         <v>13</v>
       </c>
-      <c r="C62" s="184">
+      <c r="C62" s="182">
         <v>14</v>
       </c>
-      <c r="D62" s="184">
+      <c r="D62" s="182">
         <v>2034</v>
       </c>
-      <c r="E62" s="210">
+      <c r="E62" s="208">
         <f t="shared" si="11"/>
         <v>2992830.7828967459</v>
       </c>
-      <c r="F62" s="209">
+      <c r="F62" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G62" s="208">
+      <c r="G62" s="206">
         <f t="shared" si="10"/>
         <v>119713.23131586984</v>
       </c>
-      <c r="H62" s="197">
+      <c r="H62" s="195">
         <f t="shared" si="12"/>
         <v>3292544.0142126158</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="184">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="182">
         <v>14</v>
       </c>
-      <c r="C63" s="184">
+      <c r="C63" s="182">
         <v>15</v>
       </c>
-      <c r="D63" s="184">
+      <c r="D63" s="182">
         <v>2035</v>
       </c>
-      <c r="E63" s="210">
+      <c r="E63" s="208">
         <f t="shared" si="11"/>
         <v>3292544.0142126158</v>
       </c>
-      <c r="F63" s="209">
+      <c r="F63" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G63" s="208">
+      <c r="G63" s="206">
         <f t="shared" si="10"/>
         <v>131701.76056850463</v>
       </c>
-      <c r="H63" s="197">
+      <c r="H63" s="195">
         <f t="shared" si="12"/>
         <v>3604245.7747811205</v>
       </c>
     </row>
-    <row r="64" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="184">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="182">
         <v>15</v>
       </c>
-      <c r="C64" s="184">
+      <c r="C64" s="182">
         <v>16</v>
       </c>
-      <c r="D64" s="184">
+      <c r="D64" s="182">
         <v>2036</v>
       </c>
-      <c r="E64" s="210">
+      <c r="E64" s="208">
         <f t="shared" si="11"/>
         <v>3604245.7747811205</v>
       </c>
-      <c r="F64" s="209">
+      <c r="F64" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G64" s="208">
+      <c r="G64" s="206">
         <f t="shared" si="10"/>
         <v>144169.83099124482</v>
       </c>
-      <c r="H64" s="197">
+      <c r="H64" s="195">
         <f t="shared" si="12"/>
         <v>3928415.6057723654</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="177" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="184">
+    <row r="65" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="182">
         <v>16</v>
       </c>
-      <c r="C65" s="184">
+      <c r="C65" s="182">
         <v>17</v>
       </c>
-      <c r="D65" s="184">
+      <c r="D65" s="182">
         <v>2037</v>
       </c>
-      <c r="E65" s="210">
+      <c r="E65" s="208">
         <f t="shared" si="11"/>
         <v>3928415.6057723654</v>
       </c>
-      <c r="F65" s="209">
+      <c r="F65" s="207">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G65" s="208">
+      <c r="G65" s="206">
         <f t="shared" si="10"/>
         <v>157136.62423089461</v>
       </c>
-      <c r="H65" s="197">
+      <c r="H65" s="195">
         <f t="shared" si="12"/>
         <v>4265552.2300032601</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="177" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="191">
+    <row r="66" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="189">
         <v>17</v>
       </c>
-      <c r="C66" s="191">
+      <c r="C66" s="189">
         <v>18</v>
       </c>
-      <c r="D66" s="191">
+      <c r="D66" s="189">
         <v>2038</v>
       </c>
-      <c r="E66" s="211">
+      <c r="E66" s="209">
         <f t="shared" si="11"/>
         <v>4265552.2300032601</v>
       </c>
-      <c r="F66" s="212">
+      <c r="F66" s="210">
         <f t="shared" si="9"/>
         <v>180000</v>
       </c>
-      <c r="G66" s="213">
+      <c r="G66" s="211">
         <f t="shared" si="10"/>
         <v>170622.0892001304</v>
       </c>
-      <c r="H66" s="214">
+      <c r="H66" s="212">
         <f t="shared" si="12"/>
         <v>4616174.3192033907</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="177" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="184"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="184"/>
-      <c r="G67" s="202"/>
-      <c r="H67" s="195"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G67" s="200"/>
+      <c r="H67" s="193"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4944,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>

--- a/homeworks/CF_HW_2_2021_Ans.xlsx
+++ b/homeworks/CF_HW_2_2021_Ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8283D-455F-1648-B55D-2C2720F6973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1D109-A803-4340-B138-836C289D4C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27820" yWindow="460" windowWidth="25060" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26140" yWindow="460" windowWidth="25060" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW 2 Ans" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>Proportion of Total Value * Time</t>
   </si>
@@ -395,9 +395,6 @@
     <t>10-yr annuity starting today</t>
   </si>
   <si>
-    <t>=PV(rate,nper,pmt,fv,type)  with "type" = 1.  Could also do 9YR annuity + 40K</t>
-  </si>
-  <si>
     <t>Starting next year and growing @ 3%</t>
   </si>
   <si>
@@ -441,6 +438,12 @@
   </si>
   <si>
     <t>=PMT(rate,nper,pv,fv,type) @ 4%  Note: if interest rate drops by 1/3, you have to contribute 50% more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=PV(rate,nper,pmt,fv,type)  with "type" = 1.  </t>
+  </si>
+  <si>
+    <t>Could also do 9YR annuity + 40K</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1344,9 +1347,6 @@
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="114" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="170" zoomScalePageLayoutView="154" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1735,103 +1735,108 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="214"/>
+      <c r="B8" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="53">
+        <v>250000</v>
+      </c>
       <c r="D8" s="173"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="176" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="53">
-        <v>250000</v>
-      </c>
+      <c r="B9" s="176"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="173"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="176"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="173"/>
+      <c r="B10" s="176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="177">
+        <v>360000</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="176" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="177">
-        <v>360000</v>
-      </c>
-      <c r="D11" s="173" t="s">
-        <v>76</v>
+      <c r="B11" s="176"/>
+      <c r="C11" s="53">
+        <f>C10/(1+C7)^5</f>
+        <v>282069.41992864525</v>
+      </c>
+      <c r="D11" s="214" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="176"/>
-      <c r="C12" s="53">
-        <f>C11/(1+C7)^5</f>
-        <v>282069.41992864525</v>
-      </c>
-      <c r="D12" s="215" t="s">
-        <v>68</v>
-      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="214"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="176"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="215"/>
+      <c r="B13" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="177">
+        <v>22800</v>
+      </c>
+      <c r="D13" s="173" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="176" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="177">
-        <v>22800</v>
-      </c>
-      <c r="D14" s="173" t="s">
-        <v>70</v>
+      <c r="B14" s="176"/>
+      <c r="C14" s="142">
+        <f>C13/C7</f>
+        <v>456000</v>
+      </c>
+      <c r="D14" s="214" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="176"/>
-      <c r="C15" s="142">
-        <f>C14/C7</f>
-        <v>456000</v>
-      </c>
-      <c r="D15" s="215" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="142"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="176"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="215"/>
+      <c r="B16" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="177">
+        <v>40000</v>
+      </c>
+      <c r="D16" s="173" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="177">
-        <v>40000</v>
-      </c>
-      <c r="D17" s="173" t="s">
-        <v>77</v>
+      <c r="B17" s="146"/>
+      <c r="C17" s="53">
+        <f>-PV(C7,10,C16,0,1)</f>
+        <v>324312.8670257621</v>
+      </c>
+      <c r="D17" s="215" t="s">
+        <v>93</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
@@ -1839,19 +1844,16 @@
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="146"/>
       <c r="C18" s="53">
-        <f>-PV(C7,9,C17,0,1)</f>
-        <v>298528.51037705032</v>
-      </c>
-      <c r="D18" s="216" t="s">
-        <v>78</v>
+        <f>-PV(C7,9,C16,0,0) + 40000</f>
+        <v>324312.86702576221</v>
+      </c>
+      <c r="D18" s="215" t="s">
+        <v>94</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="146"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="216"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
@@ -1863,7 +1865,7 @@
         <v>13000</v>
       </c>
       <c r="D20" s="173" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
@@ -1892,7 +1894,7 @@
     <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="137" t="s">
@@ -1968,7 +1970,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="5"/>
@@ -2071,7 +2073,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="5"/>
@@ -2160,7 +2162,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="54"/>
@@ -2188,7 +2190,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="53"/>
       <c r="D52" s="17"/>
@@ -2228,7 +2230,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="68"/>
       <c r="F55" s="69"/>
@@ -2271,7 +2273,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="17"/>
@@ -2461,7 +2463,7 @@
         <v>-2220.4100388329889</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
@@ -2488,7 +2490,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D77" s="173" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="4"/>
@@ -2543,7 +2545,7 @@
         <v>-40731.967104781681</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="4"/>
@@ -2558,7 +2560,7 @@
         <v>-26921.576938989787</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="4"/>
@@ -2909,7 +2911,7 @@
         <v>1.2034525167274303E-2</v>
       </c>
       <c r="D117" s="159" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -3289,27 +3291,27 @@
       <c r="G171" s="5"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B172" s="217"/>
-      <c r="C172" s="218"/>
-      <c r="D172" s="218"/>
-      <c r="E172" s="218"/>
-      <c r="F172" s="218"/>
+      <c r="B172" s="216"/>
+      <c r="C172" s="217"/>
+      <c r="D172" s="217"/>
+      <c r="E172" s="217"/>
+      <c r="F172" s="217"/>
       <c r="G172" s="5"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B173" s="218"/>
-      <c r="C173" s="218"/>
-      <c r="D173" s="218"/>
-      <c r="E173" s="218"/>
-      <c r="F173" s="218"/>
+      <c r="B173" s="217"/>
+      <c r="C173" s="217"/>
+      <c r="D173" s="217"/>
+      <c r="E173" s="217"/>
+      <c r="F173" s="217"/>
       <c r="G173" s="5"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B174" s="218"/>
-      <c r="C174" s="218"/>
-      <c r="D174" s="218"/>
-      <c r="E174" s="218"/>
-      <c r="F174" s="218"/>
+      <c r="B174" s="217"/>
+      <c r="C174" s="217"/>
+      <c r="D174" s="217"/>
+      <c r="E174" s="217"/>
+      <c r="F174" s="217"/>
       <c r="G174" s="5"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
@@ -3372,7 +3374,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="181" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="183" t="s">
         <v>32</v>
@@ -3826,7 +3828,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="183" t="s">
         <v>32</v>
@@ -4367,7 +4369,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47" s="201" t="s">
         <v>32</v>
